--- a/docs/grammar4.2.xlsx
+++ b/docs/grammar4.2.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupet\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="Grammar" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LLTable" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="GrammarOLD" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="LLTable OLD" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Grammar" sheetId="1" r:id="rId1"/>
+    <sheet name="LLTable" sheetId="2" r:id="rId2"/>
+    <sheet name="GrammarOLD" sheetId="3" r:id="rId3"/>
+    <sheet name="LLTable OLD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,24 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="127">
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predict</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="143">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>Predict</t>
   </si>
   <si>
     <r>
@@ -61,7 +65,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -75,18 +79,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">class id {</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>class id {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00000A"/>
         <rFont val="Consolas"/>
@@ -107,14 +111,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">}</t>
+      <t>}</t>
     </r>
     <r>
       <rPr>
@@ -146,7 +150,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -160,14 +164,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">$</t>
+      <t>$</t>
     </r>
   </si>
   <si>
@@ -199,7 +203,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C-MEMB MEMB-LIST</t>
+      <t>C-MEMB MEMB-LIST</t>
     </r>
   </si>
   <si>
@@ -221,7 +225,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -241,7 +245,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -263,7 +267,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -277,14 +281,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">static</t>
+      <t>static</t>
     </r>
     <r>
       <rPr>
@@ -306,7 +310,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C-MEMB1</t>
+      <t>C-MEMB1</t>
     </r>
     <r>
       <rPr>
@@ -326,7 +330,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -350,7 +354,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -367,7 +371,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C-MEMB2</t>
+      <t>C-MEMB2</t>
     </r>
   </si>
   <si>
@@ -389,7 +393,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -403,7 +407,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -420,7 +424,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C-MEMBFUNC</t>
+      <t>C-MEMBFUNC</t>
     </r>
   </si>
   <si>
@@ -442,7 +446,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -456,14 +460,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">int</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -485,7 +489,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -499,14 +503,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">double</t>
+      <t>double</t>
     </r>
   </si>
   <si>
@@ -528,7 +532,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -542,14 +546,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">String</t>
+      <t>String</t>
     </r>
   </si>
   <si>
@@ -561,11 +565,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TYPE</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -576,18 +580,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -616,7 +620,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -630,14 +634,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -651,18 +655,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) {</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>) {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00000A"/>
         <rFont val="Consolas"/>
@@ -683,14 +687,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">}</t>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -712,7 +716,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -726,14 +730,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">=</t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -753,18 +757,18 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">E</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">;</t>
+      <t>;</t>
     </r>
   </si>
   <si>
@@ -786,7 +790,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -800,14 +804,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">;</t>
+      <t>;</t>
     </r>
   </si>
   <si>
@@ -823,18 +827,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -851,7 +855,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C-MEMBFUNC</t>
+      <t>C-MEMBFUNC</t>
     </r>
   </si>
   <si>
@@ -873,7 +877,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -893,7 +897,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -915,7 +919,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -947,7 +951,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -961,14 +965,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1000,7 +1004,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1024,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -1042,7 +1046,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1056,14 +1060,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
   </si>
   <si>
@@ -1085,7 +1089,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1117,7 +1121,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1131,14 +1135,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -1152,7 +1156,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1168,7 +1172,7 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">FN-BODY</t>
+      <t>FN-BODY</t>
     </r>
   </si>
   <si>
@@ -1190,7 +1194,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1210,18 +1214,18 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STAT-COM</t>
+      <t>ε</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>STAT-COM</t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +1249,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1266,14 +1270,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">}</t>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -1295,7 +1299,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1317,7 +1321,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STAT-LIST</t>
+      <t>STAT-LIST</t>
     </r>
     <r>
       <rPr>
@@ -1337,7 +1341,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1369,7 +1373,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1383,7 +1387,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1400,7 +1404,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID1</t>
+      <t>ID1</t>
     </r>
   </si>
   <si>
@@ -1422,7 +1426,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1436,14 +1440,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. id</t>
+      <t>. id</t>
     </r>
   </si>
   <si>
@@ -1465,7 +1469,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1485,7 +1489,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -1507,7 +1511,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1521,7 +1525,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1542,14 +1546,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">;</t>
+      <t>;</t>
     </r>
   </si>
   <si>
@@ -1561,11 +1565,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STAT</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>STAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1576,18 +1580,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1604,7 +1608,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STAT-COM</t>
+      <t>STAT-COM</t>
     </r>
   </si>
   <si>
@@ -1626,7 +1630,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1640,14 +1644,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">if</t>
+      <t>if</t>
     </r>
     <r>
       <rPr>
@@ -1661,14 +1665,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1688,7 +1692,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">E</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -1702,14 +1706,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -1723,7 +1727,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1740,7 +1744,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STAT-COM</t>
+      <t>STAT-COM</t>
     </r>
   </si>
   <si>
@@ -1762,7 +1766,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1776,14 +1780,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">while</t>
+      <t>while</t>
     </r>
     <r>
       <rPr>
@@ -1797,14 +1801,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1824,7 +1828,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">E</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -1838,14 +1842,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -1867,11 +1871,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STAT</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>STAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1882,18 +1886,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1910,11 +1914,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">RET-VAL</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>RET-VAL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -1943,7 +1947,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -1957,14 +1961,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1978,14 +1982,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -2007,7 +2011,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2021,7 +2025,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -2037,7 +2041,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ASSIGN</t>
+      <t>ASSIGN</t>
     </r>
   </si>
   <si>
@@ -2068,18 +2072,18 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">E</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ASSIGN</t>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ASSIGN</t>
     </r>
     <r>
       <rPr>
@@ -2112,14 +2116,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -2133,14 +2137,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -2162,7 +2166,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2182,7 +2186,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -2204,7 +2208,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2218,14 +2222,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">=</t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -2244,7 +2248,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ASSIGN</t>
+      <t>ASSIGN</t>
     </r>
   </si>
   <si>
@@ -2266,7 +2270,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2286,7 +2290,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -2308,7 +2312,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2340,7 +2344,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2360,7 +2364,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
+      <t>ε</t>
     </r>
   </si>
   <si>
@@ -2386,14 +2390,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -2425,7 +2429,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2457,7 +2461,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2471,14 +2475,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">string-literal</t>
+      <t>string-literal</t>
     </r>
   </si>
   <si>
@@ -2490,11 +2494,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VAL-ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>VAL-ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF808080"/>
         <rFont val="Consolas"/>
@@ -2505,18 +2509,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF808080"/>
         <rFont val="Consolas"/>
@@ -2527,7 +2531,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -2546,11 +2550,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VAL-ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>VAL-ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -2561,18 +2565,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -2591,11 +2595,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VAL-ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>VAL-ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -2606,18 +2610,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Consolas"/>
@@ -2646,7 +2650,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2666,7 +2670,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">E</t>
+      <t>E</t>
     </r>
   </si>
   <si>
@@ -2688,7 +2692,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -2708,191 +2712,191 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ε</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
+      <t>ε</t>
+    </r>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>int-literal</t>
+  </si>
+  <si>
+    <t>double-literal</t>
+  </si>
+  <si>
+    <t>String-literal</t>
+  </si>
+  <si>
+    <t>boolean-literal</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t xml:space="preserve">else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEMB-LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB-FUNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-MEMB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-DEF-PLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-DEF-PLIST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-DEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-BODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT-COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT-LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS-CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPT-ASSIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RET-VAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-PLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN-PLIST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAL-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;= mnoziny su zastarale!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class, $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static, }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void, int, double, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int, double, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int, doube, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(, =, ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">",", )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if, while, return, {, int, double, String, boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if while, return, {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if, while, return, {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(, =</t>
+    <t>else</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>C-LIST</t>
+  </si>
+  <si>
+    <t>C-MEMB</t>
+  </si>
+  <si>
+    <t>C-MEMB1</t>
+  </si>
+  <si>
+    <t>MEMB-LIST</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>C-MEMB-FUNC</t>
+  </si>
+  <si>
+    <t>C-MEMB2</t>
+  </si>
+  <si>
+    <t>FN-DEF-PLIST</t>
+  </si>
+  <si>
+    <t>FN-DEF-PLIST1</t>
+  </si>
+  <si>
+    <t>PAR-DEF</t>
+  </si>
+  <si>
+    <t>FN-BODY</t>
+  </si>
+  <si>
+    <t>STAT-COM</t>
+  </si>
+  <si>
+    <t>STAT-LIST</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>AS-CA</t>
+  </si>
+  <si>
+    <t>OPT-ASSIGN</t>
+  </si>
+  <si>
+    <t>ASSIGN</t>
+  </si>
+  <si>
+    <t>RET-VAL</t>
+  </si>
+  <si>
+    <t>FN-PLIST</t>
+  </si>
+  <si>
+    <t>FN-PLIST1</t>
+  </si>
+  <si>
+    <t>VAL-ID</t>
+  </si>
+  <si>
+    <t>&lt;= mnoziny su zastarale!</t>
+  </si>
+  <si>
+    <t>class, $</t>
+  </si>
+  <si>
+    <t>static, }</t>
+  </si>
+  <si>
+    <t>void, int, double, String, boolean</t>
+  </si>
+  <si>
+    <t>int, double, String, boolean</t>
+  </si>
+  <si>
+    <t>int, doube, String, boolean</t>
+  </si>
+  <si>
+    <t>(, =, ;</t>
+  </si>
+  <si>
+    <t>",", )</t>
+  </si>
+  <si>
+    <t>id, if, while, return, {, int, double, String, boolean</t>
+  </si>
+  <si>
+    <t>id, if while, return, {</t>
+  </si>
+  <si>
+    <t>id, if, while, return, {</t>
+  </si>
+  <si>
+    <t>(, =</t>
   </si>
   <si>
     <r>
@@ -2913,7 +2917,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -2933,43 +2937,150 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">‘,’</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">id, if, while, return, {, }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, string-literal, int-literal, double-literal, true, false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id, string-literal, int-literal, double-literal, boolean-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string-literal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
+      <t>‘,’</t>
+    </r>
+  </si>
+  <si>
+    <t>id, if, while, return, {, }</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>id, E</t>
+  </si>
+  <si>
+    <t>id, string-literal, int-literal, double-literal, true, false</t>
+  </si>
+  <si>
+    <t>id, string-literal, int-literal, double-literal, boolean-literal</t>
+  </si>
+  <si>
+    <t>string-literal</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>class,$</t>
+  </si>
+  <si>
+    <t>int,double,String,boolean</t>
+  </si>
+  <si>
+    <t>void,int,double,String,boolean</t>
+  </si>
+  <si>
+    <t>;,=,(</t>
+  </si>
+  <si>
+    <t>","</t>
+  </si>
+  <si>
+    <t>id,{,if,while,return</t>
+  </si>
+  <si>
+    <t>id,{,if,while,return,int,double,String,boolean</t>
+  </si>
+  <si>
+    <t>(,=</t>
+  </si>
+  <si>
+    <t>id,string-literal,int-literal,double-literal,boolean-literal</t>
+  </si>
+  <si>
+    <t>E,id</t>
+  </si>
+  <si>
+    <t>static,}</t>
+  </si>
+  <si>
+    <r>
+      <t>C-MEMB1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TYPE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>C-MEMB2</t>
+    </r>
+  </si>
+  <si>
+    <t>",",)</t>
+  </si>
+  <si>
+    <t>id,{,if,while,return,int,double,String,boolean,}</t>
+  </si>
+  <si>
+    <t>else,id,{,if,while,return,int,double,String,boolean,}</t>
+  </si>
+  <si>
+    <t>double-litera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2978,22 +3089,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3001,7 +3097,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3009,7 +3105,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3031,7 +3127,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Consolas"/>
@@ -3039,7 +3135,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Consolas"/>
@@ -3068,7 +3164,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="Consolas"/>
@@ -3095,7 +3191,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="Consolas"/>
@@ -3103,7 +3199,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
@@ -3132,7 +3228,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3140,7 +3236,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3159,214 +3255,184 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3389,6 +3455,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3447,1582 +3514,2270 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="6.109375" style="3"/>
+    <col min="2" max="2" width="54.77734375" style="4"/>
+    <col min="3" max="3" width="9.33203125" style="5"/>
+    <col min="4" max="5" width="18.5546875" style="6"/>
+    <col min="6" max="6" width="22.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625"/>
+    <col min="8" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="B12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="B16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="B18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="B19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="B20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="B21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="B22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="B23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="B25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="B26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="B27" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="B28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="B29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="B30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20" t="s">
+      <c r="B31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="B32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="B33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="B34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="B35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="B36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="B37" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="B38" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="B39" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
+      <c r="B40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="B41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="21" t="s">
+      <c r="B42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="21" t="s">
+      <c r="B43" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="B44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="12" t="s">
+      <c r="B45" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="B46" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="B47" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="B48" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="B49" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="B50" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="B51" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0445344129555"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.1417004048583"/>
+    <col min="1" max="1" width="22"/>
+    <col min="2" max="1025" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:27" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29">
+        <v>5</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29">
+        <v>7</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29">
+        <v>6</v>
+      </c>
+      <c r="I4" s="29">
+        <v>6</v>
+      </c>
+      <c r="J4" s="29">
+        <v>6</v>
+      </c>
+      <c r="K4" s="29">
+        <v>6</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29">
+        <v>3</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29">
+        <v>8</v>
+      </c>
+      <c r="I6" s="29">
+        <v>9</v>
+      </c>
+      <c r="J6" s="29">
+        <v>10</v>
+      </c>
+      <c r="K6" s="29">
+        <v>11</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29">
+        <v>12</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-    </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="B8" s="29">
+        <v>14</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29">
+        <v>15</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29">
+        <v>13</v>
+      </c>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-    </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
+        <v>17</v>
+      </c>
+      <c r="I9" s="29">
+        <v>17</v>
+      </c>
+      <c r="J9" s="29">
+        <v>17</v>
+      </c>
+      <c r="K9" s="29">
+        <v>17</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
+        <v>16</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29">
+        <v>18</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29">
+        <v>19</v>
+      </c>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29">
+        <v>20</v>
+      </c>
+      <c r="I11" s="29">
+        <v>20</v>
+      </c>
+      <c r="J11" s="29">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29">
+        <v>20</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
+        <v>21</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <v>22</v>
+      </c>
+      <c r="I12" s="29">
+        <v>22</v>
+      </c>
+      <c r="J12" s="29">
+        <v>22</v>
+      </c>
+      <c r="K12" s="29">
+        <v>22</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29">
+        <v>21</v>
+      </c>
+      <c r="P12" s="29">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
+        <v>21</v>
+      </c>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-    </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29">
+        <v>24</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>25</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29">
+        <v>25</v>
+      </c>
+      <c r="P14" s="29">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29">
+        <v>25</v>
+      </c>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
+        <v>27</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29">
+        <v>28</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29">
+        <v>29</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29">
+        <v>29</v>
+      </c>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
+        <v>30</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29">
+        <v>31</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29">
+        <v>32</v>
+      </c>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29">
+        <v>35</v>
+      </c>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29">
+        <v>36</v>
+      </c>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+      <c r="B19" s="29">
+        <v>39</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29">
+        <v>40</v>
+      </c>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
+        <v>38</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29">
+        <v>37</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-    </row>
-    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="B21" s="29">
+        <v>51</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29">
+        <v>50</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29">
+        <v>42</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29">
+        <v>41</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29">
+        <v>42</v>
+      </c>
+      <c r="R22" s="29">
+        <v>42</v>
+      </c>
+      <c r="S22" s="29">
+        <v>42</v>
+      </c>
+      <c r="T22" s="29">
+        <v>42</v>
+      </c>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40">
+        <v>44</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29">
+        <v>43</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29">
+        <v>45</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29">
+        <v>47</v>
+      </c>
+      <c r="R24" s="29">
+        <v>48</v>
+      </c>
+      <c r="S24" s="29">
+        <v>46</v>
+      </c>
+      <c r="T24" s="29">
+        <v>49</v>
+      </c>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5030,2166 +5785,2149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="6.109375" style="3"/>
+    <col min="2" max="2" width="54.77734375" style="4"/>
+    <col min="3" max="3" width="9.33203125" style="5"/>
+    <col min="4" max="5" width="18.5546875" style="6"/>
+    <col min="6" max="6" width="43.44140625" style="7"/>
+    <col min="7" max="7" width="35.6640625"/>
+    <col min="8" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+    <row r="21" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="15">
         <v>0</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="15">
         <v>0</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="13" t="n">
+      <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
+    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
+    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
+    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
+    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="13" t="n">
+      <c r="C36" s="2">
         <v>0</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
+    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
+    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="13" t="n">
+      <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
+    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="13" t="n">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
+    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="n">
+    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="13" t="n">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="n">
+    <row r="43" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="n">
+    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
+    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="n">
+    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="n">
+    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="n">
+    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="n">
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="n">
+    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="22" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="n">
+    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="13" t="n">
+      <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="n">
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="17" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="28" min="19" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="9"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="29" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="30" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="23.44140625"/>
+    <col min="2" max="16" width="8.5546875"/>
+    <col min="17" max="17" width="13.77734375"/>
+    <col min="18" max="18" width="15.109375"/>
+    <col min="19" max="28" width="8.5546875"/>
+    <col min="29" max="29" width="9" style="30"/>
+    <col min="30" max="30" width="10.44140625" style="31"/>
+    <col min="31" max="31" width="43.44140625" style="32"/>
+    <col min="32" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:31" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
-    </row>
-    <row r="2" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="35"/>
+    </row>
+    <row r="2" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27" t="n">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29">
         <v>2</v>
       </c>
-      <c r="AB2" s="27" t="n">
+      <c r="AB2" s="29">
         <v>1</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="35"/>
-    </row>
-    <row r="3" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="37"/>
+    </row>
+    <row r="3" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="n">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29">
         <v>5</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="35"/>
-    </row>
-    <row r="4" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="37"/>
+    </row>
+    <row r="4" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="n">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29">
         <v>7</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="n">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29">
         <v>6</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="29">
         <v>6</v>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="29">
         <v>6</v>
       </c>
-      <c r="K4" s="27" t="n">
+      <c r="K4" s="29">
         <v>6</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="35"/>
-    </row>
-    <row r="5" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="37"/>
+    </row>
+    <row r="5" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="n">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29">
         <v>3</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27" t="n">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29">
         <v>4</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="35"/>
-    </row>
-    <row r="6" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="37"/>
+    </row>
+    <row r="6" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="n">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29">
         <v>8</v>
       </c>
-      <c r="I6" s="27" t="n">
+      <c r="I6" s="29">
         <v>9</v>
       </c>
-      <c r="J6" s="27" t="n">
+      <c r="J6" s="29">
         <v>10</v>
       </c>
-      <c r="K6" s="27" t="n">
+      <c r="K6" s="29">
         <v>11</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="35"/>
-    </row>
-    <row r="7" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="37"/>
+    </row>
+    <row r="7" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="n">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29">
         <v>12</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="35"/>
-    </row>
-    <row r="8" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="37"/>
+    </row>
+    <row r="8" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="27" t="n">
+      <c r="B8" s="29">
         <v>14</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="n">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29">
         <v>15</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27" t="n">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29">
         <v>13</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="35"/>
-    </row>
-    <row r="9" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="37"/>
+    </row>
+    <row r="9" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27" t="n">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
         <v>17</v>
       </c>
-      <c r="I9" s="27" t="n">
+      <c r="I9" s="29">
         <v>17</v>
       </c>
-      <c r="J9" s="27" t="n">
+      <c r="J9" s="29">
         <v>17</v>
       </c>
-      <c r="K9" s="27" t="n">
+      <c r="K9" s="29">
         <v>17</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27" t="n">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>16</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="35"/>
-    </row>
-    <row r="10" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="37"/>
+    </row>
+    <row r="10" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="n">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29">
         <v>18</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27" t="n">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29">
         <v>19</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="35"/>
-    </row>
-    <row r="11" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="37"/>
+    </row>
+    <row r="11" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27" t="n">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29">
         <v>20</v>
       </c>
-      <c r="I11" s="27" t="n">
+      <c r="I11" s="29">
         <v>20</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="29">
         <v>20</v>
       </c>
-      <c r="K11" s="27" t="n">
+      <c r="K11" s="29">
         <v>20</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="35"/>
-    </row>
-    <row r="12" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="37"/>
+    </row>
+    <row r="12" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="n">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <v>21</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="n">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
         <v>22</v>
       </c>
-      <c r="I12" s="27" t="n">
+      <c r="I12" s="29">
         <v>22</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="J12" s="29">
         <v>22</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="29">
         <v>22</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27" t="n">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29">
         <v>21</v>
       </c>
-      <c r="P12" s="27" t="n">
+      <c r="P12" s="29">
         <v>23</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27" t="n">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29">
         <v>21</v>
       </c>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27" t="n">
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29">
         <v>21</v>
       </c>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="35"/>
-    </row>
-    <row r="13" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="37"/>
+    </row>
+    <row r="13" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27" t="n">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29">
         <v>24</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="35"/>
-    </row>
-    <row r="14" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="37"/>
+    </row>
+    <row r="14" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27" t="n">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
         <v>25</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27" t="n">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29">
         <v>25</v>
       </c>
-      <c r="P14" s="27" t="n">
+      <c r="P14" s="29">
         <v>26</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27" t="n">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29">
         <v>25</v>
       </c>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27" t="n">
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29">
         <v>25</v>
       </c>
-      <c r="Z14" s="27" t="n">
+      <c r="Z14" s="29">
         <v>25</v>
       </c>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="35"/>
-    </row>
-    <row r="15" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="37"/>
+    </row>
+    <row r="15" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27" t="n">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
         <v>27</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="35"/>
-    </row>
-    <row r="16" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="37"/>
+    </row>
+    <row r="16" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27" t="n">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29">
         <v>28</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27" t="n">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29">
         <v>29</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27" t="n">
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29">
         <v>29</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="35"/>
-    </row>
-    <row r="17" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="37"/>
+    </row>
+    <row r="17" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27" t="n">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
         <v>30</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27" t="n">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29">
         <v>31</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27" t="n">
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29">
         <v>32</v>
       </c>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27" t="n">
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29">
         <v>33</v>
       </c>
-      <c r="Z17" s="27" t="n">
+      <c r="Z17" s="29">
         <v>34</v>
       </c>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="35"/>
-    </row>
-    <row r="18" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="37"/>
+    </row>
+    <row r="18" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="n">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29">
         <v>35</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27" t="n">
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29">
         <v>36</v>
       </c>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="35"/>
-    </row>
-    <row r="19" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="37"/>
+    </row>
+    <row r="19" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="27" t="n">
+      <c r="B19" s="29">
         <v>39</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27" t="n">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29">
         <v>40</v>
       </c>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="35"/>
-    </row>
-    <row r="20" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="37"/>
+    </row>
+    <row r="20" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="n">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
         <v>38</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27" t="n">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29">
         <v>37</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="35"/>
-    </row>
-    <row r="21" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="37"/>
+    </row>
+    <row r="21" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="27" t="n">
+      <c r="B21" s="29">
         <v>52</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27" t="n">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29">
         <v>51</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="35"/>
-    </row>
-    <row r="22" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="37"/>
+    </row>
+    <row r="22" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="n">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29">
         <v>42</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27" t="n">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29">
         <v>41</v>
       </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27" t="n">
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29">
         <v>42</v>
       </c>
-      <c r="R22" s="27" t="n">
+      <c r="R22" s="29">
         <v>42</v>
       </c>
-      <c r="S22" s="27" t="n">
+      <c r="S22" s="29">
         <v>42</v>
       </c>
-      <c r="T22" s="27" t="n">
+      <c r="T22" s="29">
         <v>42</v>
       </c>
-      <c r="U22" s="27" t="n">
+      <c r="U22" s="29">
         <v>42</v>
       </c>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="35"/>
-    </row>
-    <row r="23" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="37"/>
+    </row>
+    <row r="23" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="n">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29">
         <v>44</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27" t="n">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29">
         <v>43</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="35"/>
-    </row>
-    <row r="24" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="37"/>
+    </row>
+    <row r="24" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="n">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29">
         <v>45</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27" t="n">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29">
         <v>47</v>
       </c>
-      <c r="R24" s="27" t="n">
+      <c r="R24" s="29">
         <v>48</v>
       </c>
-      <c r="S24" s="27" t="n">
+      <c r="S24" s="29">
         <v>46</v>
       </c>
-      <c r="T24" s="27" t="n">
+      <c r="T24" s="29">
         <v>49</v>
       </c>
-      <c r="U24" s="27" t="n">
+      <c r="U24" s="29">
         <v>50</v>
       </c>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="35"/>
-    </row>
-    <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24" t="s">
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="37"/>
+    </row>
+    <row r="25" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="P25" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="24" t="s">
+      <c r="R25" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="S25" s="24" t="s">
+      <c r="S25" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="U25" s="25" t="s">
+      <c r="U25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="V25" s="24" t="s">
+      <c r="V25" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="W25" s="24" t="s">
+      <c r="W25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="X25" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="Y25" s="24" t="s">
+      <c r="Y25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="Z25" s="24" t="s">
+      <c r="Z25" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="AA25" s="24" t="s">
+      <c r="AA25" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" s="24" t="s">
+      <c r="AB25" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A25:AB25">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>